--- a/excel/account.xlsx
+++ b/excel/account.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13305"/>
+    <workbookView xWindow="225" yWindow="2310" windowWidth="20295" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,43 +26,52 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Industry</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AccountNumber</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AnnualRevenue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NumberOfEmployees</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Phone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Fax</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Website</t>
+    <t>取引先名</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業種</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引先番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間売上</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web サイト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +138,15 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -157,9 +165,9 @@
                   <xs:element type="xs:string" name="AccountNumber" minOccurs="0"/>
                   <xs:element type="xs:long" name="AnnualRevenue" minOccurs="0"/>
                   <xs:element type="xs:int" name="NumberOfEmployees" minOccurs="0"/>
-                  <xs:element type="xs:string" name="Phone" minOccurs="0"/>
-                  <xs:element type="xs:string" name="Fax" minOccurs="0"/>
-                  <xs:element type="xs:string" name="Website" minOccurs="0"/>
+                  <xs:element type="xs:string" name="Phone"/>
+                  <xs:element type="xs:string" name="Fax"/>
+                  <xs:element type="xs:string" name="Website"/>
                 </xs:sequence>
               </xs:complexType>
             </xs:element>
@@ -168,37 +176,37 @@
       </xs:element>
     </xs:schema>
   </Schema>
-  <Map ID="2" Name="root_対応付け" RootElement="root" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="1" Name="root_対応付け" RootElement="root" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="C3:J4" tableType="xml" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="C3:J4" tableType="xml" insertRow="1" totalsRowShown="0">
   <autoFilter ref="C3:J4"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="2" xpath="/root/element/Name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Industry" name="Industry">
-      <xmlColumnPr mapId="2" xpath="/root/element/Industry" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="AccountNumber" name="AccountNumber">
-      <xmlColumnPr mapId="2" xpath="/root/element/AccountNumber" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="AnnualRevenue" name="AnnualRevenue">
-      <xmlColumnPr mapId="2" xpath="/root/element/AnnualRevenue" xmlDataType="long"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="NumberOfEmployees" name="NumberOfEmployees">
-      <xmlColumnPr mapId="2" xpath="/root/element/NumberOfEmployees" xmlDataType="int"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="Phone" name="Phone">
-      <xmlColumnPr mapId="2" xpath="/root/element/Phone" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="Fax" name="Fax">
-      <xmlColumnPr mapId="2" xpath="/root/element/Fax" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="Website" name="Website">
-      <xmlColumnPr mapId="2" xpath="/root/element/Website" xmlDataType="string"/>
+    <tableColumn id="1" uniqueName="Name" name="取引先名">
+      <xmlColumnPr mapId="1" xpath="/root/element/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Industry" name="業種">
+      <xmlColumnPr mapId="1" xpath="/root/element/Industry" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="Phone" name="電話" dataDxfId="1">
+      <xmlColumnPr mapId="1" xpath="/root/element/Phone" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="Fax" name="Fax" dataDxfId="0">
+      <xmlColumnPr mapId="1" xpath="/root/element/Fax" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="AccountNumber" name="取引先番号">
+      <xmlColumnPr mapId="1" xpath="/root/element/AccountNumber" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="AnnualRevenue" name="年間売上">
+      <xmlColumnPr mapId="1" xpath="/root/element/AnnualRevenue" xmlDataType="long"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="NumberOfEmployees" name="従業員数">
+      <xmlColumnPr mapId="1" xpath="/root/element/NumberOfEmployees" xmlDataType="int"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="Website" name="Web サイト">
+      <xmlColumnPr mapId="1" xpath="/root/element/Website" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -248,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,10 +288,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,56 +497,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="10" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:10">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:10">
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:10">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="J4" s="2"/>
     </row>
   </sheetData>
